--- a/テスト/インポートテスト【北九州市様】育児サークル等修正用データ（6月分）のコピー.xlsx
+++ b/テスト/インポートテスト【北九州市様】育児サークル等修正用データ（6月分）のコピー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fukushima/Documents/experiment/育児サークル対応/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fukushima/Documents/experiment/育児サークル対応/テスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A436DCB6-2550-834E-A7EF-02EE646C21C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5B899F-F00A-D640-8B44-580DA589B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6340" yWindow="840" windowWidth="26760" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="234">
   <si>
     <t>サークル名</t>
   </si>
@@ -1019,23 +1019,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1057,142 +1041,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1474,9 +1322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z5" sqref="Z5"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3357,9 +3205,7 @@
         <v>211</v>
       </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20" t="s">
         <v>118</v>
       </c>
@@ -3807,17 +3653,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>OR($B1="",ISERROR(MATCH($B1,INDIRECT("original!B1:B1048576"),0)))</formula>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>A1&lt;&gt;INDIRECT("original!"&amp;ADDRESS(MATCH($B1,INDIRECT("original!B:B"),0),COLUMN(),4,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(ISERROR(MATCH($A1,INDIRECT("original!A:A"),0)),ISERROR(MATCH($B1,INDIRECT("original!B:B"),0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>A1&lt;&gt;INDIRECT("original!"&amp;ADDRESS(MATCH($B1,INDIRECT("original!B:B"),0),COLUMN(),4,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AND(ISERROR(MATCH($A1,INDIRECT("original!A:A"),0)),ISERROR(MATCH($B1,INDIRECT("original!B:B"),0)))</formula>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OR($B1="",ISERROR(MATCH($B1,INDIRECT("original!B1:B1048576"),0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
